--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.36411510710805</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H2">
-        <v>1.36411510710805</v>
+        <v>5.457157</v>
       </c>
       <c r="I2">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J2">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06386428988939449</v>
+        <v>0.1067053333333333</v>
       </c>
       <c r="N2">
-        <v>0.06386428988939449</v>
+        <v>0.320116</v>
       </c>
       <c r="O2">
-        <v>0.0003935133068412217</v>
+        <v>0.0004703131782773351</v>
       </c>
       <c r="P2">
-        <v>0.0003935133068412217</v>
+        <v>0.000470313178277335</v>
       </c>
       <c r="Q2">
-        <v>0.08711824264285092</v>
+        <v>0.1941025855791111</v>
       </c>
       <c r="R2">
-        <v>0.08711824264285092</v>
+        <v>1.746923270212</v>
       </c>
       <c r="S2">
-        <v>8.700257250360169E-06</v>
+        <v>1.351070583434522E-05</v>
       </c>
       <c r="T2">
-        <v>8.700257250360169E-06</v>
+        <v>1.351070583434521E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.36411510710805</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H3">
-        <v>1.36411510710805</v>
+        <v>5.457157</v>
       </c>
       <c r="I3">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J3">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>55.795630069319</v>
+        <v>0.08113566666666668</v>
       </c>
       <c r="N3">
-        <v>55.795630069319</v>
+        <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.3437965556947868</v>
+        <v>0.0003576126147551242</v>
       </c>
       <c r="P3">
-        <v>0.3437965556947868</v>
+        <v>0.0003576126147551241</v>
       </c>
       <c r="Q3">
-        <v>76.11166188817022</v>
+        <v>0.1475900237665556</v>
       </c>
       <c r="R3">
-        <v>76.11166188817022</v>
+        <v>1.328310213899</v>
       </c>
       <c r="S3">
-        <v>0.007601060559660582</v>
+        <v>1.027315215428303E-05</v>
       </c>
       <c r="T3">
-        <v>0.007601060559660582</v>
+        <v>1.027315215428303E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.36411510710805</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H4">
-        <v>1.36411510710805</v>
+        <v>5.457157</v>
       </c>
       <c r="I4">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J4">
-        <v>0.02210918182207909</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>106.433085787676</v>
+        <v>57.87945166666666</v>
       </c>
       <c r="N4">
-        <v>106.433085787676</v>
+        <v>173.638355</v>
       </c>
       <c r="O4">
-        <v>0.6558099309983719</v>
+        <v>0.2551087937213329</v>
       </c>
       <c r="P4">
-        <v>0.6558099309983719</v>
+        <v>0.2551087937213328</v>
       </c>
       <c r="Q4">
-        <v>145.1869802190959</v>
+        <v>105.2857516063039</v>
       </c>
       <c r="R4">
-        <v>145.1869802190959</v>
+        <v>947.5717644567349</v>
       </c>
       <c r="S4">
-        <v>0.01449942100516815</v>
+        <v>0.007328520711131608</v>
       </c>
       <c r="T4">
-        <v>0.01449942100516815</v>
+        <v>0.007328520711131607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.00374970768</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H5">
-        <v>56.00374970768</v>
+        <v>5.457157</v>
       </c>
       <c r="I5">
-        <v>0.9076925242989993</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J5">
-        <v>0.9076925242989993</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06386428988939449</v>
+        <v>168.748281</v>
       </c>
       <c r="N5">
-        <v>0.06386428988939449</v>
+        <v>506.244843</v>
       </c>
       <c r="O5">
-        <v>0.0003935133068412217</v>
+        <v>0.7437729482370158</v>
       </c>
       <c r="P5">
-        <v>0.0003935133068412217</v>
+        <v>0.7437729482370156</v>
       </c>
       <c r="Q5">
-        <v>3.576639706224368</v>
+        <v>306.961954299039</v>
       </c>
       <c r="R5">
-        <v>3.576639706224368</v>
+        <v>2762.657588691351</v>
       </c>
       <c r="S5">
-        <v>0.0003571890868319552</v>
+        <v>0.02136639578754976</v>
       </c>
       <c r="T5">
-        <v>0.0003571890868319552</v>
+        <v>0.02136639578754975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.00374970768</v>
+        <v>1.819052333333333</v>
       </c>
       <c r="H6">
-        <v>56.00374970768</v>
+        <v>5.457157</v>
       </c>
       <c r="I6">
-        <v>0.9076925242989993</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="J6">
-        <v>0.9076925242989993</v>
+        <v>0.02872704074300508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>55.795630069319</v>
+        <v>0.065871</v>
       </c>
       <c r="N6">
-        <v>55.795630069319</v>
+        <v>0.197613</v>
       </c>
       <c r="O6">
-        <v>0.3437965556947868</v>
+        <v>0.0002903322486189976</v>
       </c>
       <c r="P6">
-        <v>0.3437965556947868</v>
+        <v>0.0002903322486189975</v>
       </c>
       <c r="Q6">
-        <v>3124.764501184446</v>
+        <v>0.119822796249</v>
       </c>
       <c r="R6">
-        <v>3124.764501184446</v>
+        <v>1.078405166241</v>
       </c>
       <c r="S6">
-        <v>0.3120615634839026</v>
+        <v>8.340386335086224E-06</v>
       </c>
       <c r="T6">
-        <v>0.3120615634839026</v>
+        <v>8.340386335086221E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.00374970768</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H7">
-        <v>56.00374970768</v>
+        <v>170.579399</v>
       </c>
       <c r="I7">
-        <v>0.9076925242989993</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J7">
-        <v>0.9076925242989993</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>106.433085787676</v>
+        <v>0.1067053333333333</v>
       </c>
       <c r="N7">
-        <v>106.433085787676</v>
+        <v>0.320116</v>
       </c>
       <c r="O7">
-        <v>0.6558099309983719</v>
+        <v>0.0004703131782773351</v>
       </c>
       <c r="P7">
-        <v>0.6558099309983719</v>
+        <v>0.000470313178277335</v>
       </c>
       <c r="Q7">
-        <v>5960.65189706904</v>
+        <v>6.067243876698223</v>
       </c>
       <c r="R7">
-        <v>5960.65189706904</v>
+        <v>54.60519489028401</v>
       </c>
       <c r="S7">
-        <v>0.5952737717282648</v>
+        <v>0.0004223166167453862</v>
       </c>
       <c r="T7">
-        <v>0.5952737717282648</v>
+        <v>0.0004223166167453861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58526863279319</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H8">
-        <v>1.58526863279319</v>
+        <v>170.579399</v>
       </c>
       <c r="I8">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J8">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06386428988939449</v>
+        <v>0.08113566666666668</v>
       </c>
       <c r="N8">
-        <v>0.06386428988939449</v>
+        <v>0.243407</v>
       </c>
       <c r="O8">
-        <v>0.0003935133068412217</v>
+        <v>0.0003576126147551242</v>
       </c>
       <c r="P8">
-        <v>0.0003935133068412217</v>
+        <v>0.0003576126147551241</v>
       </c>
       <c r="Q8">
-        <v>0.1012420555172684</v>
+        <v>4.613357752488112</v>
       </c>
       <c r="R8">
-        <v>0.1012420555172684</v>
+        <v>41.52021977239301</v>
       </c>
       <c r="S8">
-        <v>1.011076326650126E-05</v>
+        <v>0.0003211174097269247</v>
       </c>
       <c r="T8">
-        <v>1.011076326650126E-05</v>
+        <v>0.0003211174097269246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58526863279319</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H9">
-        <v>1.58526863279319</v>
+        <v>170.579399</v>
       </c>
       <c r="I9">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J9">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.795630069319</v>
+        <v>57.87945166666666</v>
       </c>
       <c r="N9">
-        <v>55.795630069319</v>
+        <v>173.638355</v>
       </c>
       <c r="O9">
-        <v>0.3437965556947868</v>
+        <v>0.2551087937213329</v>
       </c>
       <c r="P9">
-        <v>0.3437965556947868</v>
+        <v>0.2551087937213328</v>
       </c>
       <c r="Q9">
-        <v>88.45106219582394</v>
+        <v>3291.014026583183</v>
       </c>
       <c r="R9">
-        <v>88.45106219582394</v>
+        <v>29619.12623924865</v>
       </c>
       <c r="S9">
-        <v>0.008833362242235564</v>
+        <v>0.2290743437405013</v>
       </c>
       <c r="T9">
-        <v>0.008833362242235564</v>
+        <v>0.2290743437405012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.58526863279319</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H10">
-        <v>1.58526863279319</v>
+        <v>170.579399</v>
       </c>
       <c r="I10">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J10">
-        <v>0.02569357399286333</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>106.433085787676</v>
+        <v>168.748281</v>
       </c>
       <c r="N10">
-        <v>106.433085787676</v>
+        <v>506.244843</v>
       </c>
       <c r="O10">
-        <v>0.6558099309983719</v>
+        <v>0.7437729482370158</v>
       </c>
       <c r="P10">
-        <v>0.6558099309983719</v>
+        <v>0.7437729482370156</v>
       </c>
       <c r="Q10">
-        <v>168.7250323905894</v>
+        <v>9594.993451754373</v>
       </c>
       <c r="R10">
-        <v>168.7250323905894</v>
+        <v>86354.94106578937</v>
       </c>
       <c r="S10">
-        <v>0.01685010098736126</v>
+        <v>0.6678691766127254</v>
       </c>
       <c r="T10">
-        <v>0.01685010098736126</v>
+        <v>0.6678691766127252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.76621718155702</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H11">
-        <v>1.76621718155702</v>
+        <v>170.579399</v>
       </c>
       <c r="I11">
-        <v>0.02862633556424</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="J11">
-        <v>0.02862633556424</v>
+        <v>0.8979476575422553</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.06386428988939449</v>
+        <v>0.065871</v>
       </c>
       <c r="N11">
-        <v>0.06386428988939449</v>
+        <v>0.197613</v>
       </c>
       <c r="O11">
-        <v>0.0003935133068412217</v>
+        <v>0.0002903322486189976</v>
       </c>
       <c r="P11">
-        <v>0.0003935133068412217</v>
+        <v>0.0002903322486189975</v>
       </c>
       <c r="Q11">
-        <v>0.1127982060905868</v>
+        <v>3.745411863843001</v>
       </c>
       <c r="R11">
-        <v>0.1127982060905868</v>
+        <v>33.708706774587</v>
       </c>
       <c r="S11">
-        <v>1.126484397063055E-05</v>
+        <v>0.0002607031625564046</v>
       </c>
       <c r="T11">
-        <v>1.126484397063055E-05</v>
+        <v>0.0002607031625564045</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.76621718155702</v>
+        <v>1.611504</v>
       </c>
       <c r="H12">
-        <v>1.76621718155702</v>
+        <v>4.834512</v>
       </c>
       <c r="I12">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="J12">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.795630069319</v>
+        <v>0.1067053333333333</v>
       </c>
       <c r="N12">
-        <v>55.795630069319</v>
+        <v>0.320116</v>
       </c>
       <c r="O12">
-        <v>0.3437965556947868</v>
+        <v>0.0004703131782773351</v>
       </c>
       <c r="P12">
-        <v>0.3437965556947868</v>
+        <v>0.000470313178277335</v>
       </c>
       <c r="Q12">
-        <v>98.54720048423073</v>
+        <v>0.171956071488</v>
       </c>
       <c r="R12">
-        <v>98.54720048423073</v>
+        <v>1.547604643392</v>
       </c>
       <c r="S12">
-        <v>0.009841635569148894</v>
+        <v>1.196917543046901E-05</v>
       </c>
       <c r="T12">
-        <v>0.009841635569148894</v>
+        <v>1.196917543046901E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.76621718155702</v>
+        <v>1.611504</v>
       </c>
       <c r="H13">
-        <v>1.76621718155702</v>
+        <v>4.834512</v>
       </c>
       <c r="I13">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="J13">
-        <v>0.02862633556424</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>106.433085787676</v>
+        <v>0.08113566666666668</v>
       </c>
       <c r="N13">
-        <v>106.433085787676</v>
+        <v>0.243407</v>
       </c>
       <c r="O13">
-        <v>0.6558099309983719</v>
+        <v>0.0003576126147551242</v>
       </c>
       <c r="P13">
-        <v>0.6558099309983719</v>
+        <v>0.0003576126147551241</v>
       </c>
       <c r="Q13">
-        <v>187.9839448043256</v>
+        <v>0.130750451376</v>
       </c>
       <c r="R13">
-        <v>187.9839448043256</v>
+        <v>1.176754062384</v>
       </c>
       <c r="S13">
-        <v>0.01877343515112047</v>
+        <v>9.101016768934296E-06</v>
       </c>
       <c r="T13">
-        <v>0.01877343515112047</v>
+        <v>9.101016768934292E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.979680935466806</v>
+        <v>1.611504</v>
       </c>
       <c r="H14">
-        <v>0.979680935466806</v>
+        <v>4.834512</v>
       </c>
       <c r="I14">
-        <v>0.01587838432181844</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="J14">
-        <v>0.01587838432181844</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06386428988939449</v>
+        <v>57.87945166666666</v>
       </c>
       <c r="N14">
-        <v>0.06386428988939449</v>
+        <v>173.638355</v>
       </c>
       <c r="O14">
-        <v>0.0003935133068412217</v>
+        <v>0.2551087937213329</v>
       </c>
       <c r="P14">
-        <v>0.0003935133068412217</v>
+        <v>0.2551087937213328</v>
       </c>
       <c r="Q14">
-        <v>0.06256662726176528</v>
+        <v>93.27296787863999</v>
       </c>
       <c r="R14">
-        <v>0.06256662726176528</v>
+        <v>839.45671090776</v>
       </c>
       <c r="S14">
-        <v>6.248355521774584E-06</v>
+        <v>0.006492358808847591</v>
       </c>
       <c r="T14">
-        <v>6.248355521774584E-06</v>
+        <v>0.00649235880884759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.979680935466806</v>
+        <v>1.611504</v>
       </c>
       <c r="H15">
-        <v>0.979680935466806</v>
+        <v>4.834512</v>
       </c>
       <c r="I15">
-        <v>0.01587838432181844</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="J15">
-        <v>0.01587838432181844</v>
+        <v>0.02544937285046902</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>55.795630069319</v>
+        <v>168.748281</v>
       </c>
       <c r="N15">
-        <v>55.795630069319</v>
+        <v>506.244843</v>
       </c>
       <c r="O15">
-        <v>0.3437965556947868</v>
+        <v>0.7437729482370158</v>
       </c>
       <c r="P15">
-        <v>0.3437965556947868</v>
+        <v>0.7437729482370156</v>
       </c>
       <c r="Q15">
-        <v>54.66191506127029</v>
+        <v>271.938529824624</v>
       </c>
       <c r="R15">
-        <v>54.66191506127029</v>
+        <v>2447.446768421616</v>
       </c>
       <c r="S15">
-        <v>0.005458933839839283</v>
+        <v>0.01892855507577641</v>
       </c>
       <c r="T15">
-        <v>0.005458933839839283</v>
+        <v>0.01892855507577641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.611504</v>
+      </c>
+      <c r="H16">
+        <v>4.834512</v>
+      </c>
+      <c r="I16">
+        <v>0.02544937285046902</v>
+      </c>
+      <c r="J16">
+        <v>0.02544937285046902</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.065871</v>
+      </c>
+      <c r="N16">
+        <v>0.197613</v>
+      </c>
+      <c r="O16">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P16">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q16">
+        <v>0.106151379984</v>
+      </c>
+      <c r="R16">
+        <v>0.9553624198559999</v>
+      </c>
+      <c r="S16">
+        <v>7.388773645619939E-06</v>
+      </c>
+      <c r="T16">
+        <v>7.388773645619937E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.979680935466806</v>
-      </c>
-      <c r="H16">
-        <v>0.979680935466806</v>
-      </c>
-      <c r="I16">
-        <v>0.01587838432181844</v>
-      </c>
-      <c r="J16">
-        <v>0.01587838432181844</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>106.433085787676</v>
-      </c>
-      <c r="N16">
-        <v>106.433085787676</v>
-      </c>
-      <c r="O16">
-        <v>0.6558099309983719</v>
-      </c>
-      <c r="P16">
-        <v>0.6558099309983719</v>
-      </c>
-      <c r="Q16">
-        <v>104.2704650490892</v>
-      </c>
-      <c r="R16">
-        <v>104.2704650490892</v>
-      </c>
-      <c r="S16">
-        <v>0.01041320212645738</v>
-      </c>
-      <c r="T16">
-        <v>0.01041320212645738</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.78513</v>
+      </c>
+      <c r="H17">
+        <v>5.35539</v>
+      </c>
+      <c r="I17">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="J17">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1067053333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.320116</v>
+      </c>
+      <c r="O17">
+        <v>0.0004703131782773351</v>
+      </c>
+      <c r="P17">
+        <v>0.000470313178277335</v>
+      </c>
+      <c r="Q17">
+        <v>0.1904828916933333</v>
+      </c>
+      <c r="R17">
+        <v>1.71434602524</v>
+      </c>
+      <c r="S17">
+        <v>1.325875339818774E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.325875339818774E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.78513</v>
+      </c>
+      <c r="H18">
+        <v>5.35539</v>
+      </c>
+      <c r="I18">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="J18">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.08113566666666668</v>
+      </c>
+      <c r="N18">
+        <v>0.243407</v>
+      </c>
+      <c r="O18">
+        <v>0.0003576126147551242</v>
+      </c>
+      <c r="P18">
+        <v>0.0003576126147551241</v>
+      </c>
+      <c r="Q18">
+        <v>0.1448377126366667</v>
+      </c>
+      <c r="R18">
+        <v>1.30353941373</v>
+      </c>
+      <c r="S18">
+        <v>1.008157476787379E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.008157476787378E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.78513</v>
+      </c>
+      <c r="H19">
+        <v>5.35539</v>
+      </c>
+      <c r="I19">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="J19">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>57.87945166666666</v>
+      </c>
+      <c r="N19">
+        <v>173.638355</v>
+      </c>
+      <c r="O19">
+        <v>0.2551087937213329</v>
+      </c>
+      <c r="P19">
+        <v>0.2551087937213328</v>
+      </c>
+      <c r="Q19">
+        <v>103.3223455537166</v>
+      </c>
+      <c r="R19">
+        <v>929.9011099834499</v>
+      </c>
+      <c r="S19">
+        <v>0.007191855856664395</v>
+      </c>
+      <c r="T19">
+        <v>0.007191855856664395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.78513</v>
+      </c>
+      <c r="H20">
+        <v>5.35539</v>
+      </c>
+      <c r="I20">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="J20">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>168.748281</v>
+      </c>
+      <c r="N20">
+        <v>506.244843</v>
+      </c>
+      <c r="O20">
+        <v>0.7437729482370158</v>
+      </c>
+      <c r="P20">
+        <v>0.7437729482370156</v>
+      </c>
+      <c r="Q20">
+        <v>301.2376188615299</v>
+      </c>
+      <c r="R20">
+        <v>2711.13856975377</v>
+      </c>
+      <c r="S20">
+        <v>0.020967947657853</v>
+      </c>
+      <c r="T20">
+        <v>0.020967947657853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.78513</v>
+      </c>
+      <c r="H21">
+        <v>5.35539</v>
+      </c>
+      <c r="I21">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="J21">
+        <v>0.0281913286945349</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.065871</v>
+      </c>
+      <c r="N21">
+        <v>0.197613</v>
+      </c>
+      <c r="O21">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P21">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q21">
+        <v>0.11758829823</v>
+      </c>
+      <c r="R21">
+        <v>1.05829468407</v>
+      </c>
+      <c r="S21">
+        <v>8.184851851441587E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.184851851441584E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.739402</v>
+      </c>
+      <c r="I22">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J22">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1067053333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.320116</v>
+      </c>
+      <c r="O22">
+        <v>0.0004703131782773351</v>
+      </c>
+      <c r="P22">
+        <v>0.000470313178277335</v>
+      </c>
+      <c r="Q22">
+        <v>0.1330047122924445</v>
+      </c>
+      <c r="R22">
+        <v>1.197042410632</v>
+      </c>
+      <c r="S22">
+        <v>9.257926868946997E-06</v>
+      </c>
+      <c r="T22">
+        <v>9.257926868946993E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.739402</v>
+      </c>
+      <c r="I23">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J23">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.08113566666666668</v>
+      </c>
+      <c r="N23">
+        <v>0.243407</v>
+      </c>
+      <c r="O23">
+        <v>0.0003576126147551242</v>
+      </c>
+      <c r="P23">
+        <v>0.0003576126147551241</v>
+      </c>
+      <c r="Q23">
+        <v>0.1011329580682222</v>
+      </c>
+      <c r="R23">
+        <v>0.910196622614</v>
+      </c>
+      <c r="S23">
+        <v>7.039461337108367E-06</v>
+      </c>
+      <c r="T23">
+        <v>7.039461337108364E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.739402</v>
+      </c>
+      <c r="I24">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J24">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>57.87945166666666</v>
+      </c>
+      <c r="N24">
+        <v>173.638355</v>
+      </c>
+      <c r="O24">
+        <v>0.2551087937213329</v>
+      </c>
+      <c r="P24">
+        <v>0.2551087937213328</v>
+      </c>
+      <c r="Q24">
+        <v>72.14484577374554</v>
+      </c>
+      <c r="R24">
+        <v>649.30361196371</v>
+      </c>
+      <c r="S24">
+        <v>0.005021714604188035</v>
+      </c>
+      <c r="T24">
+        <v>0.005021714604188033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.739402</v>
+      </c>
+      <c r="I25">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J25">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>168.748281</v>
+      </c>
+      <c r="N25">
+        <v>506.244843</v>
+      </c>
+      <c r="O25">
+        <v>0.7437729482370158</v>
+      </c>
+      <c r="P25">
+        <v>0.7437729482370156</v>
+      </c>
+      <c r="Q25">
+        <v>210.339219822654</v>
+      </c>
+      <c r="R25">
+        <v>1893.052978403886</v>
+      </c>
+      <c r="S25">
+        <v>0.01464087310311123</v>
+      </c>
+      <c r="T25">
+        <v>0.01464087310311122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.246467333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.739402</v>
+      </c>
+      <c r="I26">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="J26">
+        <v>0.01968460016973576</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.065871</v>
+      </c>
+      <c r="N26">
+        <v>0.197613</v>
+      </c>
+      <c r="O26">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P26">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q26">
+        <v>0.082106049714</v>
+      </c>
+      <c r="R26">
+        <v>0.7389544474259999</v>
+      </c>
+      <c r="S26">
+        <v>5.715074230445285E-06</v>
+      </c>
+      <c r="T26">
+        <v>5.715074230445283E-06</v>
       </c>
     </row>
   </sheetData>
